--- a/biology/Botanique/Aoki_Konyō/Aoki_Konyō.xlsx
+++ b/biology/Botanique/Aoki_Konyō/Aoki_Konyō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aoki_Kony%C5%8D</t>
+          <t>Aoki_Konyō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aoki Kon'yō (青木 昆陽, Kon'yō Aoki?), de son nom originel Aoki Atsubumi, appelé couramment Bunzō[1], né le 19 juin 1698 à Edo (Japon), mort le 9 novembre 1769 à Shimomeguro (province de Musashi), est un érudit confucianiste japonais qui fut au service du shogunat d’Edo.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aoki Kon'yō (青木 昆陽, Kon'yō Aoki?), de son nom originel Aoki Atsubumi, appelé couramment Bunzō, né le 19 juin 1698 à Edo (Japon), mort le 9 novembre 1769 à Shimomeguro (province de Musashi), est un érudit confucianiste japonais qui fut au service du shogunat d’Edo.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aoki_Kony%C5%8D</t>
+          <t>Aoki_Konyō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1719-1720, il entra au service de Tokugawa Yoshimune qui le nomma superintendant des archives officielles en 1739.
-En 1735, peu après la famine de 1732-1733[2], il recommanda au shogun la culture des patates douces car il estimait que cela pourrait atténuer les famines chroniques.
-Il publia cette même année un traité (Bansho kō) sur la patate douce  qu'il considérait comme un aliment de disette et dont il encouragea la culture dans tout le pays. Cela lui valut le titre de Kansho sensei, « maître de la patate douce »[3],[4].
-Il étudia la langue hollandaise et fut l'un des initiateurs des « Études hollandaises » (Rangaku) au XVIIIe siècle[3]. En 1740, à la demande du shogun, il commença à étudier l'agriculture occidentale, et en particulier l'agriculture néerlandaise.  Il publia plusieurs ouvrages sur des sujets étrangers, notamment Oranda Kabeikō (notes sur la monnaie hollandaise) en 1745 et Oranda moji ryakkō (notes sur la langue hollandaise) en 1746.
-En 1767, il assurait la gestion de la librairie shogunale (Momijiya no Bunko)[4].
-Il meurt le 9 novembre 1769 de la grippe[4].
+En 1735, peu après la famine de 1732-1733, il recommanda au shogun la culture des patates douces car il estimait que cela pourrait atténuer les famines chroniques.
+Il publia cette même année un traité (Bansho kō) sur la patate douce  qu'il considérait comme un aliment de disette et dont il encouragea la culture dans tout le pays. Cela lui valut le titre de Kansho sensei, « maître de la patate douce »,.
+Il étudia la langue hollandaise et fut l'un des initiateurs des « Études hollandaises » (Rangaku) au XVIIIe siècle. En 1740, à la demande du shogun, il commença à étudier l'agriculture occidentale, et en particulier l'agriculture néerlandaise.  Il publia plusieurs ouvrages sur des sujets étrangers, notamment Oranda Kabeikō (notes sur la monnaie hollandaise) en 1745 et Oranda moji ryakkō (notes sur la langue hollandaise) en 1746.
+En 1767, il assurait la gestion de la librairie shogunale (Momijiya no Bunko).
+Il meurt le 9 novembre 1769 de la grippe.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aoki_Kony%C5%8D</t>
+          <t>Aoki_Konyō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shoshū komonjo, 諸州古文書
 Banshokō, 1735 蕃薯考
